--- a/data_voor_swing/gebiedsdefinities/TREG_po.xlsx
+++ b/data_voor_swing/gebiedsdefinities/TREG_po.xlsx
@@ -881,12 +881,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren</t>
+          <t>Buiten Vlaanderen of Brussel</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren</t>
+          <t>Buiten Vlaanderen of Brussel</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/gebiedsdefinities/TREG_po.xlsx
+++ b/data_voor_swing/gebiedsdefinities/TREG_po.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -870,26 +870,6 @@
         </is>
       </c>
     </row>
-    <row r="25" spans="1:4" s="0" outlineLevel="0">
-      <c r="A25" s="23">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TREG99999</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Buiten Vlaanderen of Brussel</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Buiten Vlaanderen of Brussel</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
